--- a/data/new/synthetic_dataD.xlsx
+++ b/data/new/synthetic_dataD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,16 +480,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1990</v>
+        <v>1949</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -522,17 +522,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -543,19 +543,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -593,12 +593,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,21 +631,21 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -654,17 +654,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -678,16 +678,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -725,12 +725,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -819,12 +819,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -836,14 +836,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -885,45 +885,45 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -942,26 +942,26 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -975,11 +975,11 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1001,14 +1001,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1949</v>
@@ -1060,21 +1060,21 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1949</v>
+        <v>1980</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1104,14 +1104,14 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1949</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -1140,16 +1140,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1159,21 +1159,21 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1182,35 +1182,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -1248,12 +1248,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1305,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1950</v>
+        <v>1990</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1342,17 +1342,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1364,18 +1364,18 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1437,11 +1437,11 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1990</v>
+        <v>1950</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1463,47 +1463,47 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1949</v>
+        <v>1990</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>1950</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1602,11 +1602,11 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1616,30 +1616,30 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1654,40 +1654,40 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1949</v>
+        <v>2000</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1698,10 +1698,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1710,31 +1710,31 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1776,31 +1776,31 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1814,12 +1814,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -1830,10 +1830,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1842,12 +1842,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1875,12 +1875,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1899,11 +1899,11 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1990</v>
+        <v>1949</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1932,11 +1932,11 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1946,26 +1946,26 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>1950</v>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Invalid vote</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -2061,10 +2061,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2083,25 +2083,25 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2111,30 +2111,30 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2144,19 +2144,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Invalid vote</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2182,25 +2182,25 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2238,31 +2238,31 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2295,11 +2295,11 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2354,18 +2354,18 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1950</v>
+        <v>1980</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2403,31 +2403,31 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2519,14 +2519,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2540,26 +2540,26 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -2589,14 +2589,14 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>1970</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2606,26 +2606,26 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2655,14 +2655,14 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Invalid vote</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2754,14 +2754,14 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2771,56 +2771,56 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>1970</v>
@@ -2842,25 +2842,25 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2870,30 +2870,30 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2903,26 +2903,26 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2974,21 +2974,21 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3021,11 +3021,11 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1949</v>
+        <v>1980</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1950</v>
+        <v>1990</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3073,21 +3073,21 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3096,31 +3096,31 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Invalid vote</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3139,21 +3139,21 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3162,12 +3162,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3195,31 +3195,31 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -3282,19 +3282,19 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3304,18 +3304,18 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>1970</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3337,21 +3337,21 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3377,33 +3377,33 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1949</v>
+        <v>1960</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3443,28 +3443,28 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3476,14 +3476,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3502,21 +3502,21 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3525,31 +3525,31 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>1970</v>
@@ -3601,21 +3601,21 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>1949</v>
+        <v>1960</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3624,35 +3624,35 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1950</v>
+        <v>1990</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1949</v>
+        <v>1990</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3700,21 +3700,21 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1960</v>
+        <v>1949</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3740,14 +3740,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3756,31 +3756,31 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3799,35 +3799,35 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3839,14 +3839,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3898,21 +3898,21 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3921,17 +3921,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -3942,14 +3942,14 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -3975,14 +3975,14 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1950</v>
+        <v>1990</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4011,11 +4011,11 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>2000</v>
+        <v>1949</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -4041,14 +4041,14 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>1949</v>
+        <v>1990</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -4077,16 +4077,16 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4096,21 +4096,21 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4136,14 +4136,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1949</v>
+        <v>1960</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -4157,12 +4157,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -4173,14 +4173,14 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -4223,26 +4223,26 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -4272,14 +4272,14 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>1960</v>
@@ -4322,12 +4322,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4350,12 +4350,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4367,18 +4367,18 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1950</v>
+        <v>1990</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4388,26 +4388,26 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4437,14 +4437,14 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4454,30 +4454,30 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4487,23 +4487,23 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>1960</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -4548,31 +4548,31 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -4602,29 +4602,29 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -4647,17 +4647,17 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -4668,10 +4668,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4701,14 +4701,14 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4718,12 +4718,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>1950</v>
@@ -4751,26 +4751,26 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4779,12 +4779,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4796,14 +4796,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1949</v>
+        <v>1980</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4812,12 +4812,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4845,12 +4845,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4862,14 +4862,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4878,17 +4878,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -4899,10 +4899,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>1949</v>
+        <v>1960</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -4932,14 +4932,14 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4961,14 +4961,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4982,26 +4982,26 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -5015,59 +5015,59 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -5076,40 +5076,40 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1949</v>
+        <v>2000</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -5142,12 +5142,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1949</v>
+        <v>1990</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -5175,12 +5175,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5192,14 +5192,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -5229,47 +5229,47 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5291,40 +5291,40 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5345,12 +5345,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -5364,26 +5364,26 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -5406,40 +5406,40 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5449,25 +5449,25 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5510,26 +5510,26 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5548,21 +5548,21 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1990</v>
+        <v>1949</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -5571,17 +5571,17 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -5595,11 +5595,11 @@
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5621,7 +5621,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -5670,17 +5670,17 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Invalid vote</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>1990</v>
+        <v>1949</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -5708,26 +5708,26 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -5741,23 +5741,23 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>1960</v>
@@ -5769,17 +5769,17 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -5807,26 +5807,26 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5845,21 +5845,21 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5868,31 +5868,31 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5906,45 +5906,45 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -5958,11 +5958,11 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5988,19 +5988,19 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -6021,10 +6021,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -6043,14 +6043,14 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -6061,17 +6061,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6083,14 +6083,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1960</v>
+        <v>1949</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -6104,12 +6104,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -6156,11 +6156,11 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6170,12 +6170,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -6203,12 +6203,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6222,11 +6222,11 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1990</v>
+        <v>1950</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6248,14 +6248,14 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -6269,12 +6269,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -6297,17 +6297,17 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -6318,10 +6318,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1950</v>
+        <v>1980</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6347,18 +6347,18 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -6384,14 +6384,14 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
         <v>1990</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6401,12 +6401,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -6420,11 +6420,11 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6446,14 +6446,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -6462,31 +6462,31 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -6495,12 +6495,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6519,40 +6519,40 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>2000</v>
+        <v>1949</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -6566,12 +6566,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -6594,12 +6594,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -6615,43 +6615,43 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -6660,35 +6660,35 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>1990</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6698,12 +6698,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -6759,17 +6759,17 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -6809,28 +6809,28 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -6842,14 +6842,14 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6882,11 +6882,11 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6901,35 +6901,35 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -6941,14 +6941,14 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -6962,12 +6962,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1949</v>
+        <v>1990</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -6995,12 +6995,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>1949</v>
+        <v>1980</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -7044,29 +7044,3329 @@
         </is>
       </c>
       <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Undergraduate</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
         <v>1</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C208" t="n">
         <v>1980</v>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>Never married</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Undergraduate</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Graduate and Post-graduate</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Graduate and Post-graduate</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
         <is>
           <t>Vocational bachelors educations</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Graduate and Post-graduate</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Invalid vote</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Graduate and Post-graduate</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Invalid vote</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Graduate and Post-graduate</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Undergraduate</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Graduate and Post-graduate</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Graduate and Post-graduate</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Undergraduate</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Undergraduate</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Graduate and Post-graduate</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Invalid vote</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Vocational bachelors educations</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Ever married</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Non-university</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>2400</t>
         </is>
       </c>
     </row>

--- a/data/new/synthetic_dataD.xlsx
+++ b/data/new/synthetic_dataD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,26 +494,26 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -527,12 +527,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -543,14 +543,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2000</v>
+        <v>1949</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -588,12 +588,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Invalid vote</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -638,40 +638,40 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -720,17 +720,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -744,21 +744,21 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1950</v>
+        <v>1980</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -770,11 +770,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1980</v>
@@ -791,12 +791,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -819,12 +819,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -852,17 +852,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -873,19 +873,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -909,21 +909,21 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -935,14 +935,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -951,17 +951,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -975,11 +975,11 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Invalid vote</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1027,21 +1027,21 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1949</v>
+        <v>1980</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -1104,14 +1104,14 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1121,30 +1121,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1203,14 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Invalid vote</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -1305,40 +1305,40 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1990</v>
+        <v>1949</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1347,24 +1347,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1404,11 +1404,11 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1423,21 +1423,21 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1950</v>
+        <v>1990</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1456,25 +1456,25 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -1503,11 +1503,11 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1517,19 +1517,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1545,35 +1545,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1960</v>
+        <v>1949</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1583,30 +1583,30 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -1632,10 +1632,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1727,11 +1727,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>1950</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1960</v>
+        <v>1949</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1793,14 +1793,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1814,12 +1814,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -1830,10 +1830,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -1863,43 +1863,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1949</v>
+        <v>1960</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1958,14 +1958,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1979,35 +1979,35 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1990</v>
+        <v>1949</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2017,21 +2017,21 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2040,31 +2040,31 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2078,19 +2078,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2101,17 +2101,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2127,14 +2127,14 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2156,28 +2156,28 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Invalid vote</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2189,33 +2189,33 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2271,35 +2271,35 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2342,19 +2342,19 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -2391,43 +2391,43 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -2464,17 +2464,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2486,11 +2486,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>1970</v>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2512,30 +2512,30 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2552,18 +2552,18 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>2000</v>
+        <v>1949</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -2589,29 +2589,29 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -2639,26 +2639,26 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2677,25 +2677,25 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>1970</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -2724,11 +2724,11 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>1970</v>
@@ -2776,30 +2776,30 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2809,25 +2809,25 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2853,10 +2853,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2875,21 +2875,21 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2908,58 +2908,58 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2981,18 +2981,18 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -3018,10 +3018,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3030,17 +3030,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3063,17 +3063,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -3087,21 +3087,21 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Invalid vote</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3129,24 +3129,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3162,31 +3162,31 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3205,25 +3205,25 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3252,11 +3252,11 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3299,12 +3299,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3337,21 +3337,21 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3403,21 +3403,21 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3426,17 +3426,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3459,17 +3459,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -3480,10 +3480,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1949</v>
+        <v>1980</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>1980</v>
@@ -3530,59 +3530,59 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -3615,16 +3615,16 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3634,40 +3634,40 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3695,12 +3695,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -3711,10 +3711,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3728,26 +3728,26 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Invalid vote</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -3777,10 +3777,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1990</v>
+        <v>1950</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3839,18 +3839,18 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3860,19 +3860,19 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3898,21 +3898,21 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3954,17 +3954,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -3975,47 +3975,47 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1949</v>
+        <v>1980</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -4041,14 +4041,14 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1990</v>
+        <v>1950</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4077,16 +4077,16 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -4173,14 +4173,14 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>1970</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4206,24 +4206,24 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4239,14 +4239,14 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4272,43 +4272,43 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4334,28 +4334,28 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4367,18 +4367,18 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4416,24 +4416,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4459,21 +4459,21 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4482,24 +4482,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -4539,11 +4539,11 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4558,21 +4558,21 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -4614,45 +4614,45 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4671,11 +4671,11 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4723,21 +4723,21 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4746,17 +4746,17 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>1970</v>
@@ -4784,12 +4784,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4812,31 +4812,31 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4878,17 +4878,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -4899,10 +4899,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4921,18 +4921,18 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>1980</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4954,25 +4954,25 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4987,21 +4987,21 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -5010,17 +5010,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -5031,10 +5031,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -5043,12 +5043,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5060,14 +5060,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -5081,12 +5081,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -5100,11 +5100,11 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5126,33 +5126,33 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1990</v>
+        <v>1950</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -5180,26 +5180,26 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -5232,11 +5232,11 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1949</v>
+        <v>1960</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5251,21 +5251,21 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -5284,25 +5284,25 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5324,14 +5324,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5350,25 +5350,25 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5390,14 +5390,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -5406,31 +5406,31 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -5439,35 +5439,35 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -5510,26 +5510,26 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5562,11 +5562,11 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1949</v>
+        <v>1980</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5592,10 +5592,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -5614,14 +5614,14 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -5647,35 +5647,35 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>1970</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Invalid vote</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5687,18 +5687,18 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5708,12 +5708,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -5724,14 +5724,14 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5741,26 +5741,26 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -5779,25 +5779,25 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -5826,11 +5826,11 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -5885,11 +5885,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>1970</v>
@@ -5901,31 +5901,31 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -5939,26 +5939,26 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5977,21 +5977,21 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -6010,21 +6010,21 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -6043,40 +6043,40 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -6090,26 +6090,26 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1949</v>
+        <v>2000</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -6120,14 +6120,14 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6153,24 +6153,24 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6186,14 +6186,14 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6215,18 +6215,18 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1950</v>
+        <v>1980</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6236,30 +6236,30 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>1960</v>
+        <v>1949</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6274,25 +6274,25 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>1970</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6318,29 +6318,29 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -6351,10 +6351,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>1990</v>
@@ -6396,12 +6396,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6417,10 +6417,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6446,14 +6446,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6486,11 +6486,11 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6500,26 +6500,26 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -6528,17 +6528,17 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -6578,18 +6578,18 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6615,10 +6615,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -6627,17 +6627,17 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1949</v>
+        <v>1990</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -6660,17 +6660,17 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
+          <t>Non-university</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -6698,26 +6698,26 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -6747,14 +6747,14 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6764,12 +6764,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6802,35 +6802,35 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -6842,7 +6842,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -6863,12 +6863,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -6891,17 +6891,17 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -6924,17 +6924,17 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
@@ -6945,10 +6945,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -6957,17 +6957,17 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Graduate and Post-graduate</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -6981,40 +6981,40 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Ever married</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Vocational bachelors educations</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -7023,3348 +7023,48 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Ever married</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Non-university</t>
+          <t>Vocational bachelors educations</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>0</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>0</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>0</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>0</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>0</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Undergraduate</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>0</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>1</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Undergraduate</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>0</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>1</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>0</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>0</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>0</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Graduate and Post-graduate</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>0</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>1</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Graduate and Post-graduate</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>0</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>1</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Graduate and Post-graduate</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>0</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>0</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Invalid vote</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>1</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>0</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>0</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>0</v>
-      </c>
-      <c r="C224" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>0</v>
-      </c>
-      <c r="C225" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>1</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Graduate and Post-graduate</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>0</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>0</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>1</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>1</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Invalid vote</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Graduate and Post-graduate</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
-      <c r="C235" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>0</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>1</v>
-      </c>
-      <c r="C239" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>0</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>0</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>0</v>
-      </c>
-      <c r="C242" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>0</v>
-      </c>
-      <c r="C243" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>0</v>
-      </c>
-      <c r="C244" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>0</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>0</v>
-      </c>
-      <c r="C246" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>0</v>
-      </c>
-      <c r="C247" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>1</v>
-      </c>
-      <c r="C248" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>1</v>
-      </c>
-      <c r="C249" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>0</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Undergraduate</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>0</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>0</v>
-      </c>
-      <c r="C252" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>1</v>
-      </c>
-      <c r="C253" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>1</v>
-      </c>
-      <c r="C254" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>0</v>
-      </c>
-      <c r="C255" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>0</v>
-      </c>
-      <c r="C256" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>0</v>
-      </c>
-      <c r="C257" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>1</v>
-      </c>
-      <c r="C258" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>0</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Graduate and Post-graduate</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>0</v>
-      </c>
-      <c r="C260" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>0</v>
-      </c>
-      <c r="C261" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>0</v>
-      </c>
-      <c r="C262" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>0</v>
-      </c>
-      <c r="C263" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>0</v>
-      </c>
-      <c r="C264" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>0</v>
-      </c>
-      <c r="C265" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>0</v>
-      </c>
-      <c r="C266" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>1</v>
-      </c>
-      <c r="C267" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>0</v>
-      </c>
-      <c r="C268" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>0</v>
-      </c>
-      <c r="C269" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Graduate and Post-graduate</t>
-        </is>
-      </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>0</v>
-      </c>
-      <c r="C270" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>1</v>
-      </c>
-      <c r="C271" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>0</v>
-      </c>
-      <c r="C272" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>1</v>
-      </c>
-      <c r="C273" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>0</v>
-      </c>
-      <c r="C274" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Undergraduate</t>
-        </is>
-      </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>0</v>
-      </c>
-      <c r="C275" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Undergraduate</t>
-        </is>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>0</v>
-      </c>
-      <c r="C276" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>0</v>
-      </c>
-      <c r="C277" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>0</v>
-      </c>
-      <c r="C278" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>0</v>
-      </c>
-      <c r="C279" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>0</v>
-      </c>
-      <c r="C280" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Graduate and Post-graduate</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>1</v>
-      </c>
-      <c r="C281" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>0</v>
-      </c>
-      <c r="C282" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>0</v>
-      </c>
-      <c r="C283" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>0</v>
-      </c>
-      <c r="C284" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>0</v>
-      </c>
-      <c r="C285" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>0</v>
-      </c>
-      <c r="C286" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>Invalid vote</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>1</v>
-      </c>
-      <c r="C287" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>0</v>
-      </c>
-      <c r="C288" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>1</v>
-      </c>
-      <c r="C289" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>0</v>
-      </c>
-      <c r="C290" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>1</v>
-      </c>
-      <c r="C291" t="n">
-        <v>1950</v>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>1</v>
-      </c>
-      <c r="C292" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>1</v>
-      </c>
-      <c r="C293" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>1</v>
-      </c>
-      <c r="C294" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>1</v>
-      </c>
-      <c r="C295" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>0</v>
-      </c>
-      <c r="C296" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>1</v>
-      </c>
-      <c r="C297" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>0</v>
-      </c>
-      <c r="C298" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>0</v>
-      </c>
-      <c r="C299" t="n">
-        <v>1970</v>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Vocational bachelors educations</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>1</v>
-      </c>
-      <c r="C300" t="n">
-        <v>1960</v>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Ever married</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>0</v>
-      </c>
-      <c r="C301" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Non-university</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
         <is>
           <t>2400</t>
         </is>
